--- a/biology/Botanique/Jardin_ferroviaire_de_Chatte/Jardin_ferroviaire_de_Chatte.xlsx
+++ b/biology/Botanique/Jardin_ferroviaire_de_Chatte/Jardin_ferroviaire_de_Chatte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin ferroviaire de Chatte, en Isère, est un parc paysager ouvert de mars à octobre au grand public.
 </t>
@@ -511,9 +523,11 @@
           <t>Une passion envahissante</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Créé en 1987 entre Grenoble et Valence, le lieu reprend quelques codes et principes du jardin japonais, dérivants du niwaki : miniaturisation soignée et taille de la végétation en nuage, de sorte à conférer une atmosphère relaxante[1]. Le délicat travail d'aménagement vise aussi à faire cohabiter de la façon la plus harmonieuse possible deux univers opposés, le végétal et le minéral[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Créé en 1987 entre Grenoble et Valence, le lieu reprend quelques codes et principes du jardin japonais, dérivants du niwaki : miniaturisation soignée et taille de la végétation en nuage, de sorte à conférer une atmosphère relaxante. Le délicat travail d'aménagement vise aussi à faire cohabiter de la façon la plus harmonieuse possible deux univers opposés, le végétal et le minéral.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Le souci du détail</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin, d'une surface de 1 300 m2, rassemble plus de deux cents espèces d'arbres et plantes[2]. On peut y observer des scènes de la vie locale d'autrefois, c'est-à-dire de villages dauphinois[3]. Le visiteur serpente dans un décor entremêlé de routes, lacs, rivières et montagnes, animé de maquettes : cyclistes, voitures, trams, personnages divers en costume, monuments et, bien entendu, trains[3]. Au nombre d'une trentaine, ils se composent au total de 250 wagons, le tout à l'échelle 1:22,5[2]. Le réseau monté représente, cumulé, plus d'un kilomètre de rails[2].
-Il existe un partenariat avec d'autres curiosités locales, permettant aux amateurs d'acheter des billets de visite groupée[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin, d'une surface de 1 300 m2, rassemble plus de deux cents espèces d'arbres et plantes. On peut y observer des scènes de la vie locale d'autrefois, c'est-à-dire de villages dauphinois. Le visiteur serpente dans un décor entremêlé de routes, lacs, rivières et montagnes, animé de maquettes : cyclistes, voitures, trams, personnages divers en costume, monuments et, bien entendu, trains. Au nombre d'une trentaine, ils se composent au total de 250 wagons, le tout à l'échelle 1:22,5. Le réseau monté représente, cumulé, plus d'un kilomètre de rails.
+Il existe un partenariat avec d'autres curiosités locales, permettant aux amateurs d'acheter des billets de visite groupée.
 </t>
         </is>
       </c>
